--- a/way/roads.xlsx
+++ b/way/roads.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\simutrans-pak128.japan-ex-addons\way\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E1925D-F55F-455F-BB62-CE579A0E5B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086A2403-BF76-476D-A062-1B0A0B872732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="31785" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20055" yWindow="7875" windowWidth="45765" windowHeight="18240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -373,9 +373,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>iss_wrg_0050</t>
-  </si>
-  <si>
     <t>市道</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -384,9 +381,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>都市高速（単）</t>
-  </si>
-  <si>
     <t>iss_wrg_0120_single</t>
   </si>
   <si>
@@ -403,9 +397,6 @@
     <t>iss_wrg_0120_front</t>
   </si>
   <si>
-    <t>都市高速（前）</t>
-  </si>
-  <si>
     <t>Urban expressway (front)</t>
   </si>
   <si>
@@ -413,9 +404,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>都市高速（中）</t>
-  </si>
-  <si>
     <t>Urban expressway (center)</t>
   </si>
   <si>
@@ -423,9 +411,6 @@
   </si>
   <si>
     <t>Urban expressway (back)</t>
-  </si>
-  <si>
-    <t>都市高速（後）</t>
   </si>
   <si>
     <t>iss_wrg_0120_back</t>
@@ -573,6 +558,29 @@
   </si>
   <si>
     <t>128na_modified_by_Physka</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>iss_wrg_0050</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>バイパス・都市高速（中）</t>
+    <rPh sb="5" eb="9">
+      <t>トシコウソク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>バイパス・都市高速（後）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>バイパス・都市高速（単）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>バイパス・都市高速（前）</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -883,6 +891,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-C430-4ADE-8377-50E8F68FE49D}"/>
                 </c:ext>
@@ -916,6 +925,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-C430-4ADE-8377-50E8F68FE49D}"/>
                 </c:ext>
@@ -949,6 +959,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-C430-4ADE-8377-50E8F68FE49D}"/>
                 </c:ext>
@@ -982,6 +993,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-C430-4ADE-8377-50E8F68FE49D}"/>
                 </c:ext>
@@ -1015,6 +1027,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-C430-4ADE-8377-50E8F68FE49D}"/>
                 </c:ext>
@@ -1598,6 +1611,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-055A-4FD0-B13F-1AAAA4BAB753}"/>
                 </c:ext>
@@ -1631,6 +1645,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-055A-4FD0-B13F-1AAAA4BAB753}"/>
                 </c:ext>
@@ -4900,13 +4915,13 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
@@ -4918,7 +4933,7 @@
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4962,10 +4977,10 @@
         <v>81</v>
       </c>
       <c r="O1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" ht="12.75">
       <c r="B2" t="s">
         <v>13</v>
       </c>
@@ -5085,7 +5100,7 @@
         <v>82</v>
       </c>
       <c r="O4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="R4" t="s">
         <v>32</v>
@@ -5132,7 +5147,7 @@
         <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="R5" t="s">
         <v>32</v>
@@ -5143,13 +5158,13 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
         <v>79</v>
@@ -5176,10 +5191,10 @@
         <v>29</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -5187,13 +5202,13 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" t="s">
         <v>92</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" t="s">
-        <v>94</v>
       </c>
       <c r="E7" t="s">
         <v>79</v>
@@ -5220,27 +5235,27 @@
         <v>29</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" ht="12.75">
       <c r="A8" t="s">
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
         <v>79</v>
@@ -5267,27 +5282,27 @@
         <v>29</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" ht="12.75">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
         <v>79</v>
@@ -5314,27 +5329,27 @@
         <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" ht="12.75">
       <c r="A10" t="s">
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
         <v>79</v>
@@ -5361,10 +5376,10 @@
         <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>36</v>
@@ -5373,18 +5388,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" ht="12.75">
       <c r="A11" t="s">
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
         <v>79</v>
@@ -5411,10 +5426,10 @@
         <v>29</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="O11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>38</v>
@@ -5423,18 +5438,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" ht="12.75">
       <c r="A12" t="s">
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
         <v>79</v>
@@ -5461,10 +5476,10 @@
         <v>29</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="O12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>40</v>
@@ -5473,18 +5488,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" ht="12.75">
       <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
         <v>79</v>
@@ -5511,10 +5526,10 @@
         <v>29</v>
       </c>
       <c r="N13" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="O13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>42</v>
@@ -5525,13 +5540,13 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
         <v>79</v>
@@ -5558,10 +5573,10 @@
         <v>29</v>
       </c>
       <c r="N14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="O14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -5569,13 +5584,13 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
         <v>114</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" t="s">
-        <v>119</v>
       </c>
       <c r="E15" t="s">
         <v>79</v>
@@ -5602,10 +5617,10 @@
         <v>29</v>
       </c>
       <c r="N15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -5613,13 +5628,13 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
         <v>79</v>
@@ -5646,10 +5661,10 @@
         <v>29</v>
       </c>
       <c r="N16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O16" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -5657,13 +5672,13 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
         <v>79</v>
@@ -5690,10 +5705,10 @@
         <v>29</v>
       </c>
       <c r="N17" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O17" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -5741,7 +5756,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
